--- a/biology/Botanique/Bois_du_Roi_(Oise)/Bois_du_Roi_(Oise).xlsx
+++ b/biology/Botanique/Bois_du_Roi_(Oise)/Bois_du_Roi_(Oise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le bois du Roi est une forêt privée[1], située au sud-est du département de l'Oise, en France.
+Le bois du Roi est une forêt privée, située au sud-est du département de l'Oise, en France.
 </t>
         </is>
       </c>
@@ -512,15 +524,51 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>S'étendant de Betz à Versigny, le bois du Roi est situé sur les cantons de Betz, Nanteuil de Haudouin et Crépy en Valois. Sa superficie est de 3 269 hectares
-[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S'étendant de Betz à Versigny, le bois du Roi est situé sur les cantons de Betz, Nanteuil de Haudouin et Crépy en Valois. Sa superficie est de 3 269 hectares
 Outre le massif boisé, le site abrite un certain nombre de milieux remarquables comme des chaos gréseux qui dominent des landes sèches à callune installés sur des buttes sableuses.
 Le bois du Roi est classé site natura 2000 avec le Massif des Trois Forêts dont il n'est séparé que de quelques kilomètres.
 L'une des curiosités du bois est la pierre au Coq. Cette pierre, particulière, constituée de grès a été créée par le dépôt de particules au fond des océans. 
-Flore remarquable
-Anémone fausse-renoncule (Anemone ranunculoides) ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bois_du_Roi_(Oise)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bois_du_Roi_(Oise)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Flore remarquable</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Anémone fausse-renoncule (Anemone ranunculoides) ;
 Bruyère cendrée (Erica cinerea)
 Bruyère à quatre angles (Erica tetralix) ;
 Chêne pubescent (Quercus pubescens) ;
@@ -531,7 +579,7 @@
 Mouron délicat (Anagallis tenella)
 Myrtille (Vaccinium myrillus) ;
 Potentille argentée (Potentilla argentea) ;
-Petite Pyrole (Pyrola minor)[2]...</t>
+Petite Pyrole (Pyrola minor)...</t>
         </is>
       </c>
     </row>
